--- a/model_TH_macos/inputs/default_th_values.xlsx
+++ b/model_TH_macos/inputs/default_th_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperin_macos/Documents/PhD/3_Academic/Code/Julia/BN/model_TH/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperin_macos/Documents/PhD/3_Academic/Code/Julia/BN/model_TH_macos/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D956987-98FB-2D45-8EAA-3144C70E70AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582A0C8D-2A07-9A4E-822A-ADCD83CEEDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="2" xr2:uid="{1040DAD3-1126-084A-BFBA-50ECC4DEFFE6}"/>
   </bookViews>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FC343A-6120-C049-B7A4-2C3A911D4D0B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C36" sqref="C35:C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="1">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1210,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B20" s="1">
         <f>B15*B16*B17</f>
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B21" s="1">
         <f>B15+1</f>
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B22" s="1">
         <f>B15+1</f>
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1340,8 +1340,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="1">
-        <f>B15/2-25+1</f>
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1355,8 +1354,7 @@
         <v>51</v>
       </c>
       <c r="B27" s="1">
-        <f>B15/2+25+1</f>
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1384,7 +1382,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1412,7 +1410,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>

--- a/model_TH_macos/inputs/default_th_values.xlsx
+++ b/model_TH_macos/inputs/default_th_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperin_macos/Documents/PhD/3_Academic/Code/Julia/BN/model_TH_macos/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperin_macos/Documents/PhD/3_Academic/Code/Julia/BN/model_TH/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582A0C8D-2A07-9A4E-822A-ADCD83CEEDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D956987-98FB-2D45-8EAA-3144C70E70AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="2" xr2:uid="{1040DAD3-1126-084A-BFBA-50ECC4DEFFE6}"/>
   </bookViews>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FC343A-6120-C049-B7A4-2C3A911D4D0B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C36" sqref="C35:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1210,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B20" s="1">
         <f>B15*B16*B17</f>
-        <v>20</v>
+        <v>5000</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B21" s="1">
         <f>B15+1</f>
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B22" s="1">
         <f>B15+1</f>
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1340,7 +1340,8 @@
         <v>50</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <f>B15/2-25+1</f>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1354,7 +1355,8 @@
         <v>51</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <f>B15/2+25+1</f>
+        <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1382,7 +1384,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1410,7 +1412,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
